--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J78"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>2</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
         <v>2</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2">
         <v>2</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2">
         <v>2</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="2">
         <v>2</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2">
         <v>2</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="2">
         <v>2</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2">
         <v>2</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="2">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2">
         <v>2</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2">
         <v>2</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2">
         <v>2</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2">
         <v>2</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="2">
         <v>2</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2">
         <v>2</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2">
         <v>2</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2">
         <v>2</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2">
         <v>2</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="2">
         <v>2</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="2">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="2">
         <v>2</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2">
         <v>2</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2">
         <v>2</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2">
         <v>2</v>

--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>

--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
   <si>
     <t>jam</t>
   </si>
@@ -301,31 +301,259 @@
     <t>satuan</t>
   </si>
   <si>
-    <t>sekolah_id</t>
-  </si>
-  <si>
     <t>kategori_id</t>
   </si>
   <si>
+    <t>penyedia_id</t>
+  </si>
+  <si>
+    <t>tanya</t>
+  </si>
+  <si>
+    <t>pilihan</t>
+  </si>
+  <si>
+    <t>keterangan_id</t>
+  </si>
+  <si>
+    <t>kode_ip</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
     <t>pendidikan_id</t>
   </si>
   <si>
-    <t>penyedia_id</t>
-  </si>
-  <si>
-    <t>tanya</t>
-  </si>
-  <si>
-    <t>pilihan</t>
-  </si>
-  <si>
-    <t>keterangan_id</t>
-  </si>
-  <si>
-    <t>kode_ip</t>
-  </si>
-  <si>
-    <t>ip</t>
+    <t>Berapa jumlah siswa di sekolah ini?</t>
+  </si>
+  <si>
+    <t>Berapa Jumlah rombongan belajar di sekolah ini?</t>
+  </si>
+  <si>
+    <t>Berapa Jumlah rombel yang jumlah siswanya tidak melebihi 32</t>
+  </si>
+  <si>
+    <t>Jumlah dan kondisi ruang kelas :</t>
+  </si>
+  <si>
+    <t>Kondisi baik</t>
+  </si>
+  <si>
+    <t>Kondisi rusak ringan</t>
+  </si>
+  <si>
+    <t>Kondisi rusak berat</t>
+  </si>
+  <si>
+    <t>Berapa jumlah semua kelas di sekolah ini</t>
+  </si>
+  <si>
+    <t>Berapa jumlah ruang kelas di sekolah ini</t>
+  </si>
+  <si>
+    <t>Berapa jumlah ruang kelas di sekolah ini yang telah dilengkapi meja dan kursi siswa dan guru serta papan tulis dalam kondisi baik? (Jika salah satunya, tidak dalam kondisi baik mohon tidak di hitung)</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini mempunyai ruang guru yang dilengkapi dengan meja dan kursi untuk setiap guru, kepala sekolah dan tenaga kependidikan ? (Jika salah satunya, tidak terpenuhi maka jawabannya tidak)</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini mempunyai 1 orang guru untuk setiap 32 siswa</t>
+  </si>
+  <si>
+    <t>Berapakah jumlah guru di sekolah ini ?</t>
+  </si>
+  <si>
+    <t>Berapa guru yang berkualifikasi S1/D4 di sekolah ini?</t>
+  </si>
+  <si>
+    <t>Berapa guru yang sudah bersertifikat pendidik di sekolah ini?</t>
+  </si>
+  <si>
+    <t>Apakah kepala sekolah ini memiliki kualifikasi S1/D4</t>
+  </si>
+  <si>
+    <t>Apakah kepala sekolah ini sudah bersertifikat pendidik</t>
+  </si>
+  <si>
+    <t>Berapa kali pengawas melakukan kunjungan supervisi ke sekolah ini dalam 1 bulan</t>
+  </si>
+  <si>
+    <t>Barapa rata-rata lama kunjungan pengawas ke sekolah ini</t>
+  </si>
+  <si>
+    <t>Jumlah siswa per kelas dan buku paket yang tersedia di sekolah ini</t>
+  </si>
+  <si>
+    <t>Jumlah siswa kelas 1</t>
+  </si>
+  <si>
+    <t>Jumlah siswa kelas 2</t>
+  </si>
+  <si>
+    <t>Jumlah siswa kelas 3</t>
+  </si>
+  <si>
+    <t>Jumlah siswa kelas 4</t>
+  </si>
+  <si>
+    <t>Jumlah siswa kelas 5</t>
+  </si>
+  <si>
+    <t>Jumlah siswa kelas 6</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Bahasa Indonesia kelas 1</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Bahasa Indonesia kelas 2</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Bahasa Indonesia kelas 3</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Bahasa Indonesia kelas 4</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Bahasa Indonesia kelas 5</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Bahasa Indonesia kelas 6</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Matematika kelas 1</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Matematika kelas 2</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Matematika kelas 3</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Matematika kelas 4</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Matematika kelas 5</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket Matematika kelas 6</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPA kelas 1</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPA kelas 2</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPA kelas 3</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPA kelas 4</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPA kelas 5</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPA kelas 6</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPS kelas 1</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPS kelas 2</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPS kelas 3</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPS kelas 4</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPS kelas 5</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket IPS kelas 6</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket PKn kelas 1</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket PKn kelas 2</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket PKn kelas 3</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket PKn kelas 4</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket PKn kelas 5</t>
+  </si>
+  <si>
+    <t>Jumlah Buku Paket PKn kelas 6</t>
+  </si>
+  <si>
+    <t>Jumlah alat peraga IPA yang dimiliki oleh sekolah ini</t>
+  </si>
+  <si>
+    <t>Model Kerangka Manusia</t>
+  </si>
+  <si>
+    <t>Model Tubuh Manusia</t>
+  </si>
+  <si>
+    <t>Bola Dunia (Globe)</t>
+  </si>
+  <si>
+    <t>Contoh Peralatan Optik</t>
+  </si>
+  <si>
+    <t>Kit IPA eksperiment Belajar</t>
+  </si>
+  <si>
+    <t>Poster IPA/ Carta IPA</t>
+  </si>
+  <si>
+    <t>Berapakah Jumlah judul buku pengayaan di Perpustakaan sekolah</t>
+  </si>
+  <si>
+    <t>Pengayaan (Buku Pengayaan adalah Buku yang digunakan siswa sebagai tambahan untuk menunjang buku paket. Buku pengayaan dibagi menjadi dua yaitu buku fiksi dan non-fiksi. Contoh: Buku cerita ilmu pengetahuan, novel, dan sebagainya.)</t>
+  </si>
+  <si>
+    <t>Referensi (Buku Referensi adalah Buku yang digunakan oleh guru sebagai tambahan untuk referensi pembelajaran. Contoh: Kamus Besar Bahasa Indonesia, Kamus Bahasa Inggris, buku Ensiklopedi, buku Statistik Daerah, Buku telepon, Buku kitab undang-undang dan peraturan dan kitab suci.)</t>
+  </si>
+  <si>
+    <t>Berapa Jumlah Guru Tetap (PNS/GTY)</t>
+  </si>
+  <si>
+    <t>Berapa Jumlah Guru Tetap yang bekerja minimal 37.5 jam/minggu (1 jam = 60 menit)</t>
+  </si>
+  <si>
+    <t>Dalam 1 tahun berapa minggu kah kegiatan belajar mengajar (KBM) dilaksanakan di sekolah ini</t>
+  </si>
+  <si>
+    <t>Berapakah jumlah jam KBM (kegiatan belajar mengajar) dalam 1 minggu disekolah ini (1 jam = 60 menit)</t>
+  </si>
+  <si>
+    <t>Kelas 1</t>
+  </si>
+  <si>
+    <t>Kelas 2</t>
+  </si>
+  <si>
+    <t>Kelas 3</t>
+  </si>
+  <si>
+    <t>Kelas 4</t>
+  </si>
+  <si>
+    <t>Kelas 5</t>
+  </si>
+  <si>
+    <t>Kelas 6</t>
+  </si>
+  <si>
+    <t>keterangan</t>
   </si>
 </sst>
 </file>
@@ -694,7 +922,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -809,6 +1037,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -855,7 +1098,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -875,6 +1118,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1220,39 +1465,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>96</v>
       </c>
       <c r="I1" t="s">
         <v>95</v>
@@ -1268,22 +1521,22 @@
       <c r="B2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2">
@@ -1297,22 +1550,22 @@
       <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="C3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3">
@@ -1326,22 +1579,22 @@
       <c r="B4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4">
@@ -1355,22 +1608,22 @@
       <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5">
@@ -1384,22 +1637,22 @@
       <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6">
@@ -1413,22 +1666,22 @@
       <c r="B7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7">
@@ -1442,22 +1695,22 @@
       <c r="B8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8">
@@ -1471,22 +1724,22 @@
       <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9">
@@ -1500,22 +1753,22 @@
       <c r="B10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10">
@@ -1529,22 +1782,22 @@
       <c r="B11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11">
@@ -1558,22 +1811,22 @@
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1587,26 +1840,26 @@
       <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1616,26 +1869,26 @@
       <c r="B14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1645,26 +1898,26 @@
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="1">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1674,26 +1927,26 @@
       <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1703,26 +1956,26 @@
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,26 +1985,26 @@
       <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,26 +2014,26 @@
       <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>4</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>70</v>
@@ -1793,22 +2046,22 @@
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20">
@@ -1825,22 +2078,22 @@
       <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21">
@@ -1854,22 +2107,22 @@
       <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1">
         <v>21</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22">
@@ -1883,22 +2136,22 @@
       <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="1">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
         <v>1</v>
       </c>
       <c r="I23">
@@ -1912,22 +2165,22 @@
       <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
       <c r="I24">
@@ -1941,22 +2194,22 @@
       <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="1">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25">
@@ -1970,22 +2223,22 @@
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="1">
         <v>25</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26">
@@ -1999,22 +2252,22 @@
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27">
@@ -2031,22 +2284,22 @@
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="1">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28">
@@ -2063,22 +2316,22 @@
       <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1">
         <v>28</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
         <v>1</v>
       </c>
       <c r="I29">
@@ -2095,22 +2348,22 @@
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1">
         <v>29</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30">
@@ -2127,22 +2380,22 @@
       <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="1">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="I31">
@@ -2159,22 +2412,22 @@
       <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="1">
         <v>31</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="I32">
@@ -2191,22 +2444,22 @@
       <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33">
@@ -2223,22 +2476,22 @@
       <c r="B34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="1">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34">
@@ -2255,22 +2508,22 @@
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="1">
         <v>34</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="I35">
@@ -2287,22 +2540,22 @@
       <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="1">
         <v>35</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36">
@@ -2319,22 +2572,22 @@
       <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1">
         <v>36</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
         <v>1</v>
       </c>
       <c r="I37">
@@ -2351,22 +2604,22 @@
       <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="1">
         <v>37</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
         <v>1</v>
       </c>
       <c r="I38">
@@ -2383,22 +2636,22 @@
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="1">
         <v>38</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39">
@@ -2415,22 +2668,22 @@
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="1">
         <v>39</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
         <v>1</v>
       </c>
       <c r="I40">
@@ -2447,22 +2700,22 @@
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="1">
         <v>40</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
         <v>1</v>
       </c>
       <c r="I41">
@@ -2479,22 +2732,22 @@
       <c r="B42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="1">
         <v>41</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
         <v>1</v>
       </c>
       <c r="I42">
@@ -2511,22 +2764,22 @@
       <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1">
         <v>42</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
         <v>1</v>
       </c>
       <c r="I43">
@@ -2543,22 +2796,22 @@
       <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="1">
         <v>43</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44">
@@ -2575,22 +2828,22 @@
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="1">
         <v>44</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45">
@@ -2607,22 +2860,22 @@
       <c r="B46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="1">
         <v>45</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
         <v>1</v>
       </c>
       <c r="I46">
@@ -2639,22 +2892,22 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="1">
         <v>46</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
       <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>2</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
         <v>1</v>
       </c>
       <c r="I47">
@@ -2671,22 +2924,22 @@
       <c r="B48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="1">
         <v>47</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
         <v>1</v>
       </c>
       <c r="I48">
@@ -2703,22 +2956,22 @@
       <c r="B49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="1">
         <v>48</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
         <v>1</v>
       </c>
       <c r="I49">
@@ -2735,22 +2988,22 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1">
         <v>49</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
-        <v>2</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
         <v>1</v>
       </c>
       <c r="I50">
@@ -2767,22 +3020,22 @@
       <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="1">
         <v>50</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
         <v>1</v>
       </c>
       <c r="I51">
@@ -2799,22 +3052,22 @@
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="1">
         <v>51</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
       <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
         <v>1</v>
       </c>
       <c r="I52">
@@ -2831,22 +3084,22 @@
       <c r="B53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="1">
         <v>52</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
         <v>1</v>
       </c>
       <c r="I53">
@@ -2863,22 +3116,22 @@
       <c r="B54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="1">
         <v>53</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
         <v>1</v>
       </c>
       <c r="I54">
@@ -2895,22 +3148,22 @@
       <c r="B55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="1">
         <v>54</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
       <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
         <v>1</v>
       </c>
       <c r="I55">
@@ -2927,22 +3180,22 @@
       <c r="B56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1">
         <v>55</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
         <v>1</v>
       </c>
       <c r="I56">
@@ -2959,22 +3212,22 @@
       <c r="B57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="1">
         <v>56</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
       <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
         <v>1</v>
       </c>
       <c r="I57">
@@ -2991,22 +3244,22 @@
       <c r="B58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="1">
         <v>57</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="2">
-        <v>2</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
         <v>1</v>
       </c>
       <c r="I58">
@@ -3023,22 +3276,22 @@
       <c r="B59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="1">
         <v>58</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
         <v>1</v>
       </c>
       <c r="I59">
@@ -3055,22 +3308,22 @@
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="1">
         <v>59</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
         <v>1</v>
       </c>
       <c r="I60">
@@ -3087,22 +3340,22 @@
       <c r="B61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="1">
         <v>60</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
       <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
         <v>1</v>
       </c>
       <c r="I61">
@@ -3119,22 +3372,22 @@
       <c r="B62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="1">
         <v>61</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
         <v>1</v>
       </c>
       <c r="I62">
@@ -3151,22 +3404,22 @@
       <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="1">
         <v>62</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
       <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>2</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
         <v>1</v>
       </c>
       <c r="I63">
@@ -3183,22 +3436,22 @@
       <c r="B64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="1">
         <v>63</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
       <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>2</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
         <v>1</v>
       </c>
       <c r="I64">
@@ -3215,22 +3468,22 @@
       <c r="B65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="1">
         <v>64</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="2">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-      <c r="H65">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
         <v>1</v>
       </c>
       <c r="I65">
@@ -3244,22 +3497,22 @@
       <c r="B66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="1">
         <v>65</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
       <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
         <v>1</v>
       </c>
       <c r="I66">
@@ -3276,22 +3529,22 @@
       <c r="B67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="1">
         <v>66</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
       <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
         <v>1</v>
       </c>
       <c r="I67">
@@ -3305,22 +3558,22 @@
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="1">
         <v>67</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
       <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1</v>
-      </c>
-      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1">
         <v>1</v>
       </c>
       <c r="I68">
@@ -3337,26 +3590,26 @@
       <c r="B69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="1">
         <v>68</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
       <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>2</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>11</v>
@@ -3369,26 +3622,26 @@
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="1">
         <v>69</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
       <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>11</v>
@@ -3401,26 +3654,26 @@
       <c r="B71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="1">
         <v>70</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
       <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2">
-        <v>2</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>9</v>
@@ -3433,26 +3686,26 @@
       <c r="B72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="1">
         <v>71</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
       <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3462,26 +3715,26 @@
       <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="1">
         <v>72</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>0</v>
@@ -3494,26 +3747,26 @@
       <c r="B74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="1">
         <v>73</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2">
-        <v>2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>0</v>
@@ -3526,26 +3779,26 @@
       <c r="B75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="1">
         <v>74</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
       <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>0</v>
@@ -3558,26 +3811,26 @@
       <c r="B76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="1">
         <v>75</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
       <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2">
-        <v>2</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>0</v>
@@ -3590,26 +3843,26 @@
       <c r="B77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="1">
         <v>76</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
       <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>2</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>0</v>
@@ -3622,26 +3875,26 @@
       <c r="B78" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="1">
         <v>77</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
       <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>2</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>0</v>

--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -1465,15 +1465,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
         <v>2</v>
